--- a/src/main/resources/templates/software_asset_template.xlsx
+++ b/src/main/resources/templates/software_asset_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Asset Management Project\military-asset-backend\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0349BC9-7DE5-4CBF-B997-781FA95A508D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7188860A-2DEB-40AB-9C8C-8F5327F34171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="449" yWindow="1332" windowWidth="10388" windowHeight="10871" xr2:uid="{FB12CA0F-DF96-40BC-8BFA-3F1E8280C407}"/>
+    <workbookView xWindow="2997" yWindow="2955" windowWidth="13592" windowHeight="10363" xr2:uid="{FB12CA0F-DF96-40BC-8BFA-3F1E8280C407}"/>
   </bookViews>
   <sheets>
     <sheet name="软件应用资产" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>软件应用资产</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -162,14 +162,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>单价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>服务状态</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -179,6 +171,25 @@
   </si>
   <si>
     <t>盘点单位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价（元）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额（元）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘点备注</t>
+  </si>
+  <si>
+    <t>核价备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始账备注</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -186,7 +197,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +260,21 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -267,7 +293,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -299,33 +325,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -341,35 +346,11 @@
     <xf numFmtId="14" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -378,14 +359,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -664,17 +670,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADE6630-EA78-4E3C-8D74-7AC72D6C27D8}">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28.2109375" customWidth="1"/>
     <col min="4" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" style="7" customWidth="1"/>
     <col min="6" max="6" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="12.5" customWidth="1"/>
     <col min="8" max="8" width="20.85546875" customWidth="1"/>
@@ -684,101 +690,110 @@
     <col min="22" max="22" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="22.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:25" ht="22.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="10"/>
     </row>
-    <row r="2" spans="1:24" ht="29.15" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="11" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="U2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="T2" s="18" t="s">
+      <c r="V2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="U2" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="V2" s="18" t="s">
-        <v>35</v>
+      <c r="W2" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="7" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -787,7 +802,7 @@
       <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -837,15 +852,14 @@
       <c r="V3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="W3" s="5"/>
-      <c r="X3" s="6"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
     </row>
-    <row r="4" spans="1:24" s="7" customFormat="1" ht="73.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8"/>
-      <c r="E4" s="14"/>
-      <c r="U4" s="9"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="6"/>
+    <row r="4" spans="1:25" s="14" customFormat="1" ht="73.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15"/>
+      <c r="E4" s="16"/>
+      <c r="U4" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
